--- a/fia/analytics I - planilha/Regressão linear múltipla.xlsx
+++ b/fia/analytics I - planilha/Regressão linear múltipla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roghn\iCloudDrive\Documents\FIA\Aplicações de Estatística - Turma 3 (2021)\1. Aulas\02. Regressão Linear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\analytics I - planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAECF09-EB75-4747-992A-408E357A8FFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1BCB1B-19B6-4877-B55D-F85ADA727F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="898" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="898" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case Limite_Credito" sheetId="17" r:id="rId1"/>
@@ -2182,15 +2182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>268941</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>610342</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142779</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274166</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>53132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2205,8 +2205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9795163" cy="1612350"/>
+          <a:off x="268941" y="67236"/>
+          <a:ext cx="9687107" cy="1554720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4158,7 +4158,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -5495,7 +5495,9 @@
   </sheetPr>
   <dimension ref="I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB56" sqref="AB56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
@@ -11710,7 +11712,9 @@
   </sheetPr>
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12116,7 +12120,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
@@ -17950,7 +17954,9 @@
   </sheetPr>
   <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
